--- a/Data/Processed/Angiosperms/missing_powo_ipni/Verbenaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Verbenaceae.xlsx
@@ -1642,7 +1642,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -10233,7 +10233,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -10981,7 +10981,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -12554,7 +12554,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -19657,7 +19657,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -21945,7 +21945,7 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -23023,7 +23023,7 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -23111,7 +23111,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -23199,7 +23199,7 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -23837,7 +23837,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -25410,7 +25410,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -28523,7 +28523,7 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -29051,7 +29051,7 @@
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H510" t="inlineStr">
@@ -29061,7 +29061,7 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amer. J. Bot. 38: 326. 1951 </t>
+          <t>Amer. J. Bot. 38: 326. 1951</t>
         </is>
       </c>
       <c r="J510" t="b">
@@ -29129,7 +29129,7 @@
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
@@ -29207,7 +29207,7 @@
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
@@ -29217,7 +29217,7 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trans. Linn. Soc. London, Bot. ser. 2, 4: 434. 1895 </t>
+          <t>Trans. Linn. Soc. London, Bot. ser. 2, 4: 434. 1895</t>
         </is>
       </c>
       <c r="J512" t="b">
@@ -29285,7 +29285,7 @@
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
@@ -29295,7 +29295,7 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linnaea 7(1): 122. 1832 </t>
+          <t>Linnaea 7(1): 122. 1832</t>
         </is>
       </c>
       <c r="J513" t="b">
@@ -29363,7 +29363,7 @@
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
@@ -29441,7 +29441,7 @@
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
@@ -29451,7 +29451,7 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 541. 1911 [6 Dec 1911] </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 541. 1911 [6 Dec 1911]</t>
         </is>
       </c>
       <c r="J515" t="b">
@@ -29519,7 +29519,7 @@
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
@@ -29529,7 +29529,7 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Imp. Naturalistes Moscou 36(2): 204. 1863 </t>
+          <t>Bull. Soc. Imp. Naturalistes Moscou 36(2): 204. 1863</t>
         </is>
       </c>
       <c r="J516" t="b">
@@ -29597,7 +29597,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H517" t="inlineStr">
@@ -29607,7 +29607,7 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 544. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 544. 1911</t>
         </is>
       </c>
       <c r="J517" t="b">
@@ -29675,7 +29675,7 @@
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
@@ -29685,7 +29685,7 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 4: 128. 1952 </t>
+          <t>Phytologia 4: 128. 1952</t>
         </is>
       </c>
       <c r="J518" t="b">
@@ -29753,7 +29753,7 @@
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
@@ -29763,7 +29763,7 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t xml:space="preserve">Syst. Veg., ed. 16 [Sprengel] 4(2, Cur. Post.): 230. 1827 [Jan-Jun 1827] </t>
+          <t>Syst. Veg., ed. 16 [Sprengel] 4(2, Cur. Post.): 230. 1827 [Jan-Jun 1827]</t>
         </is>
       </c>
       <c r="J519" t="b">
